--- a/outputs/torch/crnn.xlsx
+++ b/outputs/torch/crnn.xlsx
@@ -1670,7 +1670,7 @@
         <v>1576960</v>
       </c>
       <c r="V26" t="n">
-        <v>1574912</v>
+        <v>1572864</v>
       </c>
       <c r="X26" t="n">
         <v>1280</v>
@@ -1760,7 +1760,7 @@
         <v>1052672</v>
       </c>
       <c r="V29" t="n">
-        <v>1050624</v>
+        <v>1048576</v>
       </c>
       <c r="X29" t="n">
         <v>1280</v>
@@ -1862,7 +1862,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.6364451840000001</v>
+        <v>0.636441088</v>
       </c>
     </row>
   </sheetData>
